--- a/PFOA inhalation Rat/Data/PFOA_female_blood_ORAL_kim_2016.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_female_blood_ORAL_kim_2016.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptsir\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F28AFC-E1B7-4735-B7D0-C72E994CF08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="2390" yWindow="2580" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
     <t>Dose_mg_per_kg</t>
   </si>
@@ -49,19 +39,19 @@
     <t>Tissue</t>
   </si>
   <si>
-    <t>Blood</t>
-  </si>
-  <si>
     <t>Time_hours</t>
   </si>
   <si>
     <t>Concentration_microg_per_g_organ</t>
   </si>
+  <si>
+    <t>Plasma</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -120,7 +110,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,31 +421,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -466,15 +456,15 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4.0687446133218197</v>
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>1.69</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -485,15 +475,15 @@
       <c r="G2" s="4"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4.0704750955078994</v>
+        <v>0.4</v>
+      </c>
+      <c r="C3">
+        <v>3.97</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -504,15 +494,15 @@
       <c r="G3" s="4"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2.2353799082905499</v>
+        <v>1.2</v>
+      </c>
+      <c r="C4">
+        <v>4.3499999999999996</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -523,15 +513,15 @@
       <c r="G4" s="4"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.73273367044779503</v>
+      <c r="C5">
+        <v>3.97</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -542,15 +532,15 @@
       <c r="G5" s="4"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6.7984683119941297E-2</v>
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2.2599999999999998</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -561,61 +551,78 @@
       <c r="G6" s="4"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0.74</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="G9" s="4"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
